--- a/fib_heap.xlsx
+++ b/fib_heap.xlsx
@@ -114,7 +114,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -127,7 +127,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>0.000204</v>
+        <v>0.00204</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
